--- a/excel/finished/焦化45/CK45-配煤-自动配煤报表.xlsx
+++ b/excel/finished/焦化45/CK45-配煤-自动配煤报表.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
-    <t xml:space="preserve">焦化分厂4#5#焦炉配煤自动配煤操作记录 </t>
+    <t xml:space="preserve">备煤作业区4#5#焦炉配煤自动配煤操作记录 </t>
   </si>
   <si>
     <t>编号：SGSSG-BSMCSA32-G001-01A</t>
@@ -2311,7 +2311,6 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="0"/>
     </row>
     <row r="3">
       <c r="B3" s="5" t="s">
